--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,10 +701,235 @@
       <c r="C31" t="str">
         <v>745_海芋红_Calla Lily_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>846_玛格丽特_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>9</v>
+      </c>
+      <c r="C37" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>563_星芹_Astrantia_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>10</v>
+      </c>
+      <c r="C45" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>11</v>
+      </c>
+      <c r="C51" t="str">
+        <v>108_绣球深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F51" t="str">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>12</v>
+      </c>
+      <c r="C56" t="str">
+        <v>635_干花安娜白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L57"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -762,7 +987,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030301015155552050422043157321327151519.51013.512310330</v>
+        <v>030301015155552050422043157321327151519.51013.5123103335310101010515151510515161651052513015201051010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -921,7 +921,7 @@
     </row>
     <row r="57">
       <c r="C57" t="str">
-        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
+        <v>422_粉黛_pink muhly grass_undefined_1bunch</v>
       </c>
       <c r="F57" t="str">
         <v>10</v>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -989,6 +989,9 @@
       <c r="G2" t="str">
         <v>030301015155552050422043157321327151519.51013.5123103335310101010515151510515161651052513015201051010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,490 +446,256 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>475_诺贝松_undefined_undefined_1bunch</v>
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F2" t="str">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
       <c r="C3" t="str">
-        <v>326_红继木_undefined_undefined_1bunch</v>
+        <v>214_气场_Glamorous_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
-        <v>30</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+        <v>279_完美甜蜜_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F4" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F5" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F6" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
       </c>
       <c r="F8" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>2</v>
+      </c>
       <c r="C9" t="str">
-        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>3</v>
+      </c>
       <c r="C10" t="str">
-        <v>108_绣球深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
       <c r="F10" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>110_绣球浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+        <v>128_绣球重瓣秋红_Hydrangea Peacoke_Hydrangea L._1stem</v>
       </c>
       <c r="F11" t="str">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>3</v>
-      </c>
       <c r="C12" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+        <v>123_绣球秋红_Hydrangea_Hydrangea L._1stem</v>
       </c>
       <c r="F12" t="str">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+        <v>126_绣球苹果绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
       </c>
       <c r="F13" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>4</v>
-      </c>
       <c r="C14" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+        <v>111_绣球紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F14" t="str">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+        <v>103_绣球莫奈粉_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
       </c>
       <c r="F15" t="str">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>5</v>
-      </c>
       <c r="C16" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
       <c r="F16" t="str">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F17" t="str">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>614_康乃馨绿_green_undefined_20stems</v>
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F18" t="str">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>6</v>
-      </c>
       <c r="C19" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
       <c r="F19" t="str">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v>4</v>
+      </c>
       <c r="C20" t="str">
-        <v>614_康乃馨绿_green_undefined_20stems</v>
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
       </c>
       <c r="F20" t="str">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>548_白星花_tweedia white_undefined_1bunch</v>
+        <v>832_康乃馨香槟_undefined_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
       </c>
       <c r="F22" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
       </c>
       <c r="F23" t="str">
-        <v>19.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>7</v>
-      </c>
       <c r="C24" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
       </c>
       <c r="F24" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+        <v>848_吸色康乃馨墨兰_undefined_undefined_1bunch</v>
       </c>
       <c r="F25" t="str">
-        <v>13.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="str">
-        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F26" t="str">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="str">
-        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+        <v>279_完美甜蜜_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F27" t="str">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>8</v>
-      </c>
       <c r="C28" t="str">
-        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F28" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="str">
+        <v>5</v>
+      </c>
       <c r="C29" t="str">
-        <v>855_海芋粉_undefined_undefined_1bunch</v>
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
       </c>
       <c r="F29" t="str">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
-        <v>775_海芋黑_Calla Lily_undefined_1bunch</v>
+        <v>798_大菊粉_undefined_undefined_5stems</v>
       </c>
       <c r="F30" t="str">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>797_大菊黄_undefined_undefined_5stems</v>
-      </c>
-      <c r="F32" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>797_大菊黄_undefined_undefined_5stems</v>
-      </c>
-      <c r="F33" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F34" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
-      </c>
-      <c r="F35" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v>846_玛格丽特_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>9</v>
-      </c>
-      <c r="C37" t="str">
-        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
-      </c>
-      <c r="F37" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>563_星芹_Astrantia_undefined_1bunch</v>
-      </c>
-      <c r="F38" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
-      </c>
-      <c r="F39" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
-      </c>
-      <c r="F40" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
-      </c>
-      <c r="F41" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="str">
-        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
-      </c>
-      <c r="F42" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>436_木百合_leucadendron _undefined_1bunch</v>
-      </c>
-      <c r="F43" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" xml:space="preserve">
-      <c r="C44" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F44" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>10</v>
-      </c>
-      <c r="C45" t="str">
-        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F45" t="str">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F46" t="str">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F47" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F48" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="str">
-        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F49" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
-      <c r="C50" t="str" xml:space="preserve">
-        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
-white_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F50" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>11</v>
-      </c>
-      <c r="C51" t="str">
-        <v>108_绣球深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F51" t="str">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F52" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="str">
-        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F53" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F54" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="str">
-        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F55" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>12</v>
-      </c>
-      <c r="C56" t="str">
-        <v>635_干花安娜白_undefined_undefined_1stem</v>
-      </c>
-      <c r="F56" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="str">
-        <v>422_粉黛_pink muhly grass_undefined_1bunch</v>
-      </c>
-      <c r="F57" t="str">
-        <v>10</v>
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -987,10 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030301015155552050422043157321327151519.51013.5123103335310101010515151510515161651052513015201051010</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>01511.585516103010151520304030202020151010105101011153080</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -692,6 +692,9 @@
       <c r="C31" t="str">
         <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -753,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.585516103010151520304030202020151010105101011153080</v>
+        <v>01511.5855161030101515203040302020201510101051010111530810</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,9 +696,91 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>6</v>
+      </c>
+      <c r="C32" t="str">
+        <v>342_南天竹红_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +838,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.5855161030101515203040302020201510101051010111530810</v>
+        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154040</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -777,6 +777,9 @@
       <c r="C41" t="str">
         <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -838,7 +841,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154040</v>
+        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -778,7 +778,7 @@
         <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
       </c>
       <c r="F41" t="str">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +841,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042</v>
+        <v>01511.58551610301015152030403020202015101010510101115308101510302015251540420</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,9 +781,89 @@
         <v>20</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>839_洋牡丹洋葱_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>839_洋牡丹洋葱_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -841,7 +921,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.58551610301015152030403020202015101010510101115308101510302015251540420</v>
+        <v>01511.58551610301015152030403020202015101010510101115308101510302015251540420301010510205750</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,10 +860,180 @@
       <c r="A51" t="str">
         <v>8</v>
       </c>
+      <c r="C51" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>214_气场_Glamorous_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>864_黄洋金边红色_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>864_黄洋金边红色_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">417_黑种草蓝色_nigella damascena 
+blue_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2</v>
+      </c>
+      <c r="C67" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>108_绣球深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F69" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F70" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -921,7 +1091,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.58551610301015152030403020202015101010510101115308101510302015251540420301010510205750</v>
+        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.51010202010106201010115155151030390</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,10 +1030,176 @@
       <c r="C71" t="str">
         <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>583_腊梅棕_wax brown_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>546_非洲菊绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>3</v>
+      </c>
+      <c r="C78" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>832_康乃馨香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>4</v>
+      </c>
+      <c r="C85" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1091,7 +1257,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.51010202010106201010115155151030390</v>
+        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.5101020201010620101011515515103039555551010121010651510205155550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -1196,6 +1196,9 @@
       <c r="C91" t="str">
         <v>447_黄金球_craspedia_undefined_1bunch</v>
       </c>
+      <c r="F91" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1257,7 +1260,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.5101020201010620101011515515103039555551010121010651510205155550</v>
+        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.5101020201010620101011515515103039555551010121010651510205155551</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -1197,7 +1197,7 @@
         <v>447_黄金球_craspedia_undefined_1bunch</v>
       </c>
       <c r="F91" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1260,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.5101020201010620101011515515103039555551010121010651510205155551</v>
+        <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.51010202010106201010115155151030395555510101210106515102051555510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-11.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-11.xlsx
@@ -1262,6 +1262,9 @@
       <c r="G2" t="str">
         <v>01511.5855161030101515203040302020201510101051010111530810151030201525154042030101051020575100.51010202010106201010115155151030395555510101210106515102051555510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
